--- a/Zaoch/6/лаб1,3,4_6.xlsx
+++ b/Zaoch/6/лаб1,3,4_6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikit\Desktop\PAS\Zaoch\19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36A5E186-1F55-4007-A48B-F4EE87673327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BC2D7B2-F95C-4831-B738-C000324E1F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" xr2:uid="{41422B86-A465-485E-A3F6-9BAAF425347B}"/>
   </bookViews>
@@ -935,54 +935,73 @@
     <xf numFmtId="1" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -995,25 +1014,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1331,8 +1331,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:Y108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="53" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="R75" sqref="R75"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="53" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="T63" sqref="T63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -1532,14 +1532,14 @@
       </c>
     </row>
     <row r="22" spans="1:25" ht="15" thickBot="1">
-      <c r="A22" s="111" t="s">
+      <c r="A22" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="111"/>
-      <c r="C22" s="111"/>
-      <c r="D22" s="111"/>
-      <c r="E22" s="111"/>
-      <c r="F22" s="111"/>
+      <c r="B22" s="125"/>
+      <c r="C22" s="125"/>
+      <c r="D22" s="125"/>
+      <c r="E22" s="125"/>
+      <c r="F22" s="125"/>
       <c r="I22" s="53" t="s">
         <v>16</v>
       </c>
@@ -1967,7 +1967,7 @@
       </c>
     </row>
     <row r="30" spans="1:25" ht="17.25">
-      <c r="C30" s="137" t="s">
+      <c r="C30" s="111" t="s">
         <v>41</v>
       </c>
       <c r="M30" t="s">
@@ -2096,24 +2096,24 @@
       </c>
     </row>
     <row r="34" spans="1:25">
-      <c r="A34" s="120" t="s">
+      <c r="A34" s="116" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="121"/>
-      <c r="C34" s="121"/>
-      <c r="D34" s="121"/>
-      <c r="E34" s="136"/>
-      <c r="F34" s="136"/>
-      <c r="G34" s="136"/>
-      <c r="H34" s="136"/>
-      <c r="I34" s="121"/>
-      <c r="J34" s="121"/>
-      <c r="K34" s="121"/>
-      <c r="L34" s="131"/>
-      <c r="N34" s="120" t="s">
+      <c r="B34" s="112"/>
+      <c r="C34" s="112"/>
+      <c r="D34" s="112"/>
+      <c r="E34" s="121"/>
+      <c r="F34" s="121"/>
+      <c r="G34" s="121"/>
+      <c r="H34" s="121"/>
+      <c r="I34" s="112"/>
+      <c r="J34" s="112"/>
+      <c r="K34" s="112"/>
+      <c r="L34" s="113"/>
+      <c r="N34" s="116" t="s">
         <v>46</v>
       </c>
-      <c r="O34" s="121"/>
+      <c r="O34" s="112"/>
       <c r="P34" s="15"/>
       <c r="Q34" s="15"/>
       <c r="R34" s="15"/>
@@ -2130,17 +2130,17 @@
       <c r="C35" t="s">
         <v>48</v>
       </c>
-      <c r="D35" s="123"/>
+      <c r="D35" s="114"/>
       <c r="E35" t="s">
         <v>49</v>
       </c>
       <c r="H35" t="s">
         <v>50</v>
       </c>
-      <c r="I35" s="123"/>
-      <c r="J35" s="123"/>
-      <c r="K35" s="123"/>
-      <c r="L35" s="125"/>
+      <c r="I35" s="114"/>
+      <c r="J35" s="114"/>
+      <c r="K35" s="114"/>
+      <c r="L35" s="115"/>
       <c r="N35" s="26"/>
       <c r="T35" s="3" t="s">
         <v>51</v>
@@ -2164,7 +2164,7 @@
         <f>B$28/B36</f>
         <v>513.33333333333337</v>
       </c>
-      <c r="D36" s="123"/>
+      <c r="D36" s="114"/>
       <c r="E36" s="68">
         <v>235</v>
       </c>
@@ -2185,8 +2185,8 @@
         <f>F36</f>
         <v>п2</v>
       </c>
-      <c r="K36" s="123"/>
-      <c r="L36" s="125"/>
+      <c r="K36" s="114"/>
+      <c r="L36" s="115"/>
       <c r="N36" s="26" t="s">
         <v>55</v>
       </c>
@@ -2225,7 +2225,7 @@
         <f>C$28/B37</f>
         <v>235</v>
       </c>
-      <c r="D37" s="123"/>
+      <c r="D37" s="114"/>
       <c r="E37" s="68">
         <v>286</v>
       </c>
@@ -2246,8 +2246,8 @@
         <f t="shared" ref="J37:J41" si="9">F37</f>
         <v>п6</v>
       </c>
-      <c r="K37" s="123"/>
-      <c r="L37" s="125"/>
+      <c r="K37" s="114"/>
+      <c r="L37" s="115"/>
       <c r="N37" s="26">
         <v>2</v>
       </c>
@@ -2288,7 +2288,7 @@
         <f>D$28/B38</f>
         <v>303.75</v>
       </c>
-      <c r="D38" s="123"/>
+      <c r="D38" s="114"/>
       <c r="E38" s="68">
         <v>304</v>
       </c>
@@ -2309,8 +2309,8 @@
         <f t="shared" si="9"/>
         <v>п3</v>
       </c>
-      <c r="K38" s="123"/>
-      <c r="L38" s="125"/>
+      <c r="K38" s="114"/>
+      <c r="L38" s="115"/>
       <c r="N38" s="90">
         <v>9</v>
       </c>
@@ -2351,7 +2351,7 @@
         <f>E$28/B39</f>
         <v>311.25</v>
       </c>
-      <c r="D39" s="123"/>
+      <c r="D39" s="114"/>
       <c r="E39" s="68">
         <v>311</v>
       </c>
@@ -2372,8 +2372,8 @@
         <f t="shared" si="9"/>
         <v>п4</v>
       </c>
-      <c r="K39" s="123"/>
-      <c r="L39" s="125"/>
+      <c r="K39" s="114"/>
+      <c r="L39" s="115"/>
       <c r="N39" s="26">
         <v>16</v>
       </c>
@@ -2402,7 +2402,7 @@
         <f>F$28/B40</f>
         <v>400</v>
       </c>
-      <c r="D40" s="123"/>
+      <c r="D40" s="114"/>
       <c r="E40" s="68">
         <v>400</v>
       </c>
@@ -2423,8 +2423,8 @@
         <f t="shared" si="9"/>
         <v>п5</v>
       </c>
-      <c r="K40" s="123"/>
-      <c r="L40" s="125"/>
+      <c r="K40" s="114"/>
+      <c r="L40" s="115"/>
       <c r="N40" s="90">
         <v>18</v>
       </c>
@@ -2451,7 +2451,7 @@
         <f>G$28/B41</f>
         <v>285.71428571428572</v>
       </c>
-      <c r="D41" s="123"/>
+      <c r="D41" s="114"/>
       <c r="E41" s="68">
         <v>513</v>
       </c>
@@ -2472,8 +2472,8 @@
         <f t="shared" si="9"/>
         <v>п1</v>
       </c>
-      <c r="K41" s="123"/>
-      <c r="L41" s="125"/>
+      <c r="K41" s="114"/>
+      <c r="L41" s="115"/>
       <c r="N41" s="90">
         <v>20</v>
       </c>
@@ -2489,26 +2489,26 @@
       <c r="V41" s="17"/>
     </row>
     <row r="42" spans="1:25">
-      <c r="A42" s="122"/>
-      <c r="B42" s="123"/>
-      <c r="C42" s="123"/>
-      <c r="D42" s="123"/>
-      <c r="E42" s="128"/>
-      <c r="F42" s="128"/>
-      <c r="G42" s="128"/>
-      <c r="H42" s="128"/>
-      <c r="I42" s="128"/>
-      <c r="J42" s="128"/>
-      <c r="K42" s="128"/>
-      <c r="L42" s="129"/>
+      <c r="A42" s="133"/>
+      <c r="B42" s="114"/>
+      <c r="C42" s="114"/>
+      <c r="D42" s="114"/>
+      <c r="E42" s="135"/>
+      <c r="F42" s="135"/>
+      <c r="G42" s="135"/>
+      <c r="H42" s="135"/>
+      <c r="I42" s="135"/>
+      <c r="J42" s="135"/>
+      <c r="K42" s="135"/>
+      <c r="L42" s="136"/>
       <c r="N42" s="26">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O42" s="85">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="P42" s="3">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="Q42" t="s">
         <v>3</v>
@@ -2525,23 +2525,23 @@
       <c r="C43" t="s">
         <v>63</v>
       </c>
-      <c r="D43" s="123"/>
-      <c r="E43" s="128"/>
-      <c r="F43" s="128"/>
-      <c r="G43" s="128"/>
-      <c r="H43" s="128"/>
-      <c r="I43" s="128"/>
-      <c r="J43" s="128"/>
-      <c r="K43" s="128"/>
-      <c r="L43" s="129"/>
+      <c r="D43" s="114"/>
+      <c r="E43" s="135"/>
+      <c r="F43" s="135"/>
+      <c r="G43" s="135"/>
+      <c r="H43" s="135"/>
+      <c r="I43" s="135"/>
+      <c r="J43" s="135"/>
+      <c r="K43" s="135"/>
+      <c r="L43" s="136"/>
       <c r="N43" s="26">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O43" s="85">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="P43" s="3">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="Q43" t="s">
         <v>60</v>
@@ -2558,7 +2558,7 @@
       <c r="C44" s="76">
         <v>60</v>
       </c>
-      <c r="D44" s="123"/>
+      <c r="D44" s="114"/>
       <c r="E44" s="62" t="s">
         <v>64</v>
       </c>
@@ -2580,7 +2580,7 @@
       <c r="K44" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="L44" s="130"/>
+      <c r="L44" s="137"/>
       <c r="N44" s="26"/>
       <c r="V44" s="17"/>
     </row>
@@ -2594,7 +2594,7 @@
       <c r="C45" s="76">
         <v>65</v>
       </c>
-      <c r="D45" s="123"/>
+      <c r="D45" s="114"/>
       <c r="E45" s="73">
         <f>A44</f>
         <v>24</v>
@@ -2623,7 +2623,7 @@
         <f>$C$41/$B44</f>
         <v>190.47619047619048</v>
       </c>
-      <c r="L45" s="130"/>
+      <c r="L45" s="137"/>
       <c r="N45" s="62" t="s">
         <v>65</v>
       </c>
@@ -2659,7 +2659,7 @@
       <c r="C46" s="76">
         <v>50</v>
       </c>
-      <c r="D46" s="123"/>
+      <c r="D46" s="114"/>
       <c r="E46" s="66">
         <f t="shared" ref="E46:E47" si="11">A45</f>
         <v>26</v>
@@ -2688,7 +2688,7 @@
         <f t="shared" ref="K46:K47" si="16">$C$41/$B45</f>
         <v>142.85714285714286</v>
       </c>
-      <c r="L46" s="130"/>
+      <c r="L46" s="137"/>
       <c r="N46" s="26">
         <v>2</v>
       </c>
@@ -2721,10 +2721,10 @@
       </c>
     </row>
     <row r="47" spans="1:25" ht="15" thickBot="1">
-      <c r="A47" s="122"/>
-      <c r="B47" s="123"/>
-      <c r="C47" s="123"/>
-      <c r="D47" s="123"/>
+      <c r="A47" s="133"/>
+      <c r="B47" s="114"/>
+      <c r="C47" s="114"/>
+      <c r="D47" s="114"/>
       <c r="E47" s="73">
         <f t="shared" si="11"/>
         <v>48</v>
@@ -2753,7 +2753,7 @@
         <f t="shared" si="16"/>
         <v>228.57142857142858</v>
       </c>
-      <c r="L47" s="130"/>
+      <c r="L47" s="137"/>
       <c r="N47" s="90">
         <v>9</v>
       </c>
@@ -2786,18 +2786,18 @@
       </c>
     </row>
     <row r="48" spans="1:25" ht="15" thickBot="1">
-      <c r="A48" s="122"/>
-      <c r="B48" s="123"/>
-      <c r="C48" s="123"/>
-      <c r="D48" s="123"/>
-      <c r="E48" s="123"/>
-      <c r="F48" s="123"/>
-      <c r="G48" s="123"/>
-      <c r="H48" s="123"/>
-      <c r="I48" s="123"/>
-      <c r="J48" s="123"/>
-      <c r="K48" s="123"/>
-      <c r="L48" s="125"/>
+      <c r="A48" s="133"/>
+      <c r="B48" s="114"/>
+      <c r="C48" s="114"/>
+      <c r="D48" s="114"/>
+      <c r="E48" s="114"/>
+      <c r="F48" s="114"/>
+      <c r="G48" s="114"/>
+      <c r="H48" s="114"/>
+      <c r="I48" s="114"/>
+      <c r="J48" s="114"/>
+      <c r="K48" s="114"/>
+      <c r="L48" s="115"/>
       <c r="N48" s="26">
         <v>16</v>
       </c>
@@ -2830,18 +2830,18 @@
       </c>
     </row>
     <row r="49" spans="1:22" ht="15" thickBot="1">
-      <c r="A49" s="122"/>
-      <c r="B49" s="123"/>
-      <c r="C49" s="123"/>
-      <c r="D49" s="123"/>
-      <c r="E49" s="123"/>
-      <c r="F49" s="123"/>
-      <c r="G49" s="123"/>
-      <c r="H49" s="123"/>
-      <c r="I49" s="123"/>
-      <c r="J49" s="123"/>
-      <c r="K49" s="123"/>
-      <c r="L49" s="125"/>
+      <c r="A49" s="133"/>
+      <c r="B49" s="114"/>
+      <c r="C49" s="114"/>
+      <c r="D49" s="114"/>
+      <c r="E49" s="114"/>
+      <c r="F49" s="114"/>
+      <c r="G49" s="114"/>
+      <c r="H49" s="114"/>
+      <c r="I49" s="114"/>
+      <c r="J49" s="114"/>
+      <c r="K49" s="114"/>
+      <c r="L49" s="115"/>
       <c r="N49" s="90">
         <v>18</v>
       </c>
@@ -2874,18 +2874,18 @@
       </c>
     </row>
     <row r="50" spans="1:22" ht="15" thickBot="1">
-      <c r="A50" s="122"/>
-      <c r="B50" s="123"/>
-      <c r="C50" s="123"/>
-      <c r="D50" s="123"/>
-      <c r="E50" s="123"/>
-      <c r="F50" s="123"/>
-      <c r="G50" s="123"/>
-      <c r="H50" s="123"/>
-      <c r="I50" s="123"/>
-      <c r="J50" s="123"/>
-      <c r="K50" s="123"/>
-      <c r="L50" s="125"/>
+      <c r="A50" s="133"/>
+      <c r="B50" s="114"/>
+      <c r="C50" s="114"/>
+      <c r="D50" s="114"/>
+      <c r="E50" s="114"/>
+      <c r="F50" s="114"/>
+      <c r="G50" s="114"/>
+      <c r="H50" s="114"/>
+      <c r="I50" s="114"/>
+      <c r="J50" s="114"/>
+      <c r="K50" s="114"/>
+      <c r="L50" s="115"/>
       <c r="N50" s="90">
         <v>20</v>
       </c>
@@ -2918,10 +2918,10 @@
       </c>
     </row>
     <row r="51" spans="1:22" ht="15" thickBot="1">
-      <c r="A51" s="122"/>
-      <c r="B51" s="123"/>
-      <c r="C51" s="123"/>
-      <c r="D51" s="123"/>
+      <c r="A51" s="133"/>
+      <c r="B51" s="114"/>
+      <c r="C51" s="114"/>
+      <c r="D51" s="114"/>
       <c r="E51" s="62" t="s">
         <v>66</v>
       </c>
@@ -2943,43 +2943,43 @@
       <c r="K51" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="L51" s="125"/>
+      <c r="L51" s="115"/>
       <c r="N51" s="26">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O51" s="88">
         <f t="shared" si="18"/>
-        <v>658.74</v>
+        <v>263.49599999999998</v>
       </c>
       <c r="P51" s="88">
         <f>$V$37/O43</f>
-        <v>3162.4999999999995</v>
+        <v>1264.9999999999998</v>
       </c>
       <c r="Q51" s="89">
         <f>$V$38/O43</f>
-        <v>532.125</v>
+        <v>212.85</v>
       </c>
       <c r="S51" s="26">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T51" s="88">
         <f t="shared" si="21"/>
-        <v>16468.5</v>
+        <v>14492.279999999999</v>
       </c>
       <c r="U51" s="88">
         <f>P51*P43</f>
-        <v>47437.499999999993</v>
+        <v>69574.999999999985</v>
       </c>
       <c r="V51" s="89">
         <f>Q51*P43</f>
-        <v>7981.875</v>
+        <v>11706.75</v>
       </c>
     </row>
     <row r="52" spans="1:22" ht="15" thickBot="1">
-      <c r="A52" s="122"/>
-      <c r="B52" s="123"/>
-      <c r="C52" s="123"/>
-      <c r="D52" s="123"/>
+      <c r="A52" s="133"/>
+      <c r="B52" s="114"/>
+      <c r="C52" s="114"/>
+      <c r="D52" s="114"/>
       <c r="E52" s="73">
         <f>A44</f>
         <v>24</v>
@@ -3008,15 +3008,15 @@
         <f t="shared" si="24"/>
         <v>11428.571428571429</v>
       </c>
-      <c r="L52" s="125"/>
+      <c r="L52" s="115"/>
       <c r="N52" s="26"/>
       <c r="V52" s="17"/>
     </row>
     <row r="53" spans="1:22" ht="15" thickBot="1">
-      <c r="A53" s="122"/>
-      <c r="B53" s="123"/>
-      <c r="C53" s="123"/>
-      <c r="D53" s="123"/>
+      <c r="A53" s="133"/>
+      <c r="B53" s="114"/>
+      <c r="C53" s="114"/>
+      <c r="D53" s="114"/>
       <c r="E53" s="73">
         <f t="shared" ref="E53:E54" si="25">A45</f>
         <v>26</v>
@@ -3045,15 +3045,15 @@
         <f t="shared" si="26"/>
         <v>9285.7142857142862</v>
       </c>
-      <c r="L53" s="125"/>
+      <c r="L53" s="115"/>
       <c r="N53" s="26"/>
       <c r="V53" s="17"/>
     </row>
     <row r="54" spans="1:22" ht="15" thickBot="1">
-      <c r="A54" s="122"/>
-      <c r="B54" s="123"/>
-      <c r="C54" s="123"/>
-      <c r="D54" s="123"/>
+      <c r="A54" s="133"/>
+      <c r="B54" s="114"/>
+      <c r="C54" s="114"/>
+      <c r="D54" s="114"/>
       <c r="E54" s="73">
         <f t="shared" si="25"/>
         <v>48</v>
@@ -3082,22 +3082,22 @@
         <f t="shared" si="27"/>
         <v>11428.571428571429</v>
       </c>
-      <c r="L54" s="125"/>
+      <c r="L54" s="115"/>
       <c r="N54" s="26"/>
       <c r="V54" s="17"/>
     </row>
     <row r="55" spans="1:22" ht="15" thickBot="1">
       <c r="A55" s="124"/>
-      <c r="B55" s="111"/>
-      <c r="C55" s="111"/>
-      <c r="D55" s="111"/>
-      <c r="E55" s="127"/>
-      <c r="F55" s="127"/>
-      <c r="G55" s="127"/>
-      <c r="H55" s="127"/>
-      <c r="I55" s="127"/>
-      <c r="J55" s="127"/>
-      <c r="K55" s="127"/>
+      <c r="B55" s="125"/>
+      <c r="C55" s="125"/>
+      <c r="D55" s="125"/>
+      <c r="E55" s="134"/>
+      <c r="F55" s="134"/>
+      <c r="G55" s="134"/>
+      <c r="H55" s="134"/>
+      <c r="I55" s="134"/>
+      <c r="J55" s="134"/>
+      <c r="K55" s="134"/>
       <c r="L55" s="126"/>
       <c r="N55" s="27"/>
       <c r="O55" s="18"/>
@@ -3110,86 +3110,86 @@
       <c r="V55" s="19"/>
     </row>
     <row r="56" spans="1:22">
-      <c r="A56" s="120"/>
-      <c r="B56" s="121"/>
-      <c r="C56" s="121"/>
-      <c r="D56" s="121"/>
-      <c r="E56" s="121"/>
-      <c r="F56" s="121"/>
-      <c r="G56" s="121"/>
-      <c r="H56" s="131"/>
+      <c r="A56" s="116"/>
+      <c r="B56" s="112"/>
+      <c r="C56" s="112"/>
+      <c r="D56" s="112"/>
+      <c r="E56" s="112"/>
+      <c r="F56" s="112"/>
+      <c r="G56" s="112"/>
+      <c r="H56" s="113"/>
       <c r="N56" s="93" t="s">
         <v>67</v>
       </c>
-      <c r="O56" s="114" t="s">
+      <c r="O56" s="117" t="s">
         <v>68</v>
       </c>
-      <c r="P56" s="115"/>
+      <c r="P56" s="118"/>
       <c r="Q56" s="79" t="s">
         <v>67</v>
       </c>
-      <c r="R56" s="112" t="s">
+      <c r="R56" s="131" t="s">
         <v>69</v>
       </c>
-      <c r="S56" s="114" t="s">
+      <c r="S56" s="117" t="s">
         <v>70</v>
       </c>
-      <c r="T56" s="115"/>
+      <c r="T56" s="118"/>
     </row>
     <row r="57" spans="1:22" ht="15" thickBot="1">
       <c r="A57" s="124"/>
-      <c r="B57" s="111"/>
-      <c r="C57" s="111"/>
-      <c r="D57" s="111"/>
-      <c r="E57" s="111"/>
-      <c r="F57" s="111"/>
-      <c r="G57" s="111"/>
+      <c r="B57" s="125"/>
+      <c r="C57" s="125"/>
+      <c r="D57" s="125"/>
+      <c r="E57" s="125"/>
+      <c r="F57" s="125"/>
+      <c r="G57" s="125"/>
       <c r="H57" s="126"/>
       <c r="N57" s="94" t="s">
         <v>71</v>
       </c>
-      <c r="O57" s="116"/>
-      <c r="P57" s="117"/>
+      <c r="O57" s="119"/>
+      <c r="P57" s="120"/>
       <c r="Q57" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="R57" s="113"/>
-      <c r="S57" s="116" t="s">
+      <c r="R57" s="132"/>
+      <c r="S57" s="119" t="s">
         <v>73</v>
       </c>
-      <c r="T57" s="117"/>
+      <c r="T57" s="120"/>
     </row>
     <row r="58" spans="1:22" ht="14.45" customHeight="1">
       <c r="A58" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="B58" s="132" t="s">
+      <c r="B58" s="127" t="s">
         <v>68</v>
       </c>
-      <c r="C58" s="133"/>
+      <c r="C58" s="128"/>
       <c r="D58" s="79" t="s">
         <v>67</v>
       </c>
-      <c r="E58" s="132" t="s">
+      <c r="E58" s="127" t="s">
         <v>69</v>
       </c>
-      <c r="F58" s="133"/>
-      <c r="G58" s="132" t="s">
+      <c r="F58" s="128"/>
+      <c r="G58" s="127" t="s">
         <v>70</v>
       </c>
-      <c r="H58" s="133"/>
+      <c r="H58" s="128"/>
       <c r="N58" s="77"/>
-      <c r="O58" s="118" t="s">
+      <c r="O58" s="122" t="s">
         <v>74</v>
       </c>
       <c r="P58" s="80" t="s">
         <v>75</v>
       </c>
       <c r="Q58" s="81"/>
-      <c r="R58" s="118" t="s">
+      <c r="R58" s="122" t="s">
         <v>76</v>
       </c>
-      <c r="S58" s="118" t="s">
+      <c r="S58" s="122" t="s">
         <v>77</v>
       </c>
       <c r="T58" s="80" t="s">
@@ -3200,45 +3200,45 @@
       <c r="A59" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B59" s="134"/>
-      <c r="C59" s="135"/>
+      <c r="B59" s="129"/>
+      <c r="C59" s="130"/>
       <c r="D59" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="E59" s="134"/>
-      <c r="F59" s="135"/>
-      <c r="G59" s="134" t="s">
+      <c r="E59" s="129"/>
+      <c r="F59" s="130"/>
+      <c r="G59" s="129" t="s">
         <v>73</v>
       </c>
-      <c r="H59" s="135"/>
+      <c r="H59" s="130"/>
       <c r="N59" s="78"/>
-      <c r="O59" s="119"/>
+      <c r="O59" s="123"/>
       <c r="P59" s="50" t="s">
         <v>79</v>
       </c>
       <c r="Q59" s="82"/>
-      <c r="R59" s="119"/>
-      <c r="S59" s="119"/>
+      <c r="R59" s="123"/>
+      <c r="S59" s="123"/>
       <c r="T59" s="50" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="60" spans="1:22" ht="14.45" customHeight="1" thickBot="1">
       <c r="A60" s="77"/>
-      <c r="B60" s="118" t="s">
+      <c r="B60" s="122" t="s">
         <v>81</v>
       </c>
       <c r="C60" s="80" t="s">
         <v>75</v>
       </c>
       <c r="D60" s="81"/>
-      <c r="E60" s="118" t="s">
+      <c r="E60" s="122" t="s">
         <v>76</v>
       </c>
-      <c r="F60" s="118" t="s">
+      <c r="F60" s="122" t="s">
         <v>78</v>
       </c>
-      <c r="G60" s="118" t="s">
+      <c r="G60" s="122" t="s">
         <v>77</v>
       </c>
       <c r="H60" s="80" t="s">
@@ -3263,22 +3263,22 @@
         <v>658.74</v>
       </c>
       <c r="S60" s="43">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="T60" s="50">
-        <v>5962</v>
-      </c>
-    </row>
-    <row r="61" spans="1:22" ht="15" thickBot="1">
+        <v>5989</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" ht="15">
       <c r="A61" s="78"/>
-      <c r="B61" s="119"/>
+      <c r="B61" s="123"/>
       <c r="C61" s="50" t="s">
         <v>79</v>
       </c>
       <c r="D61" s="82"/>
-      <c r="E61" s="119"/>
-      <c r="F61" s="119"/>
-      <c r="G61" s="119"/>
+      <c r="E61" s="123"/>
+      <c r="F61" s="123"/>
+      <c r="G61" s="123"/>
       <c r="H61" s="50" t="s">
         <v>80</v>
       </c>
@@ -3304,10 +3304,10 @@
         <v>532.125</v>
       </c>
       <c r="S61" s="43">
-        <v>887</v>
+        <v>237</v>
       </c>
       <c r="T61" s="43">
-        <v>22187</v>
+        <v>5913</v>
       </c>
     </row>
     <row r="62" spans="1:22" ht="14.25">
@@ -3361,10 +3361,10 @@
         <v>3162.4999999999995</v>
       </c>
       <c r="S62" s="43">
-        <v>631</v>
+        <v>1054</v>
       </c>
       <c r="T62" s="43">
-        <v>18920</v>
+        <v>31625</v>
       </c>
     </row>
     <row r="63" spans="1:22" ht="15" thickBot="1">
@@ -3556,11 +3556,11 @@
     </row>
     <row r="79" spans="1:18">
       <c r="B79" s="6"/>
-      <c r="F79" s="123"/>
+      <c r="F79" s="114"/>
     </row>
     <row r="80" spans="1:18">
       <c r="B80" s="6"/>
-      <c r="F80" s="123"/>
+      <c r="F80" s="114"/>
     </row>
     <row r="81" spans="2:6">
       <c r="B81" s="6"/>
@@ -3657,21 +3657,6 @@
     <sortCondition ref="E36:E41"/>
   </sortState>
   <mergeCells count="31">
-    <mergeCell ref="K34:L41"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="O56:P57"/>
-    <mergeCell ref="I34:J35"/>
-    <mergeCell ref="E34:H34"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="A56:H57"/>
-    <mergeCell ref="B58:C59"/>
-    <mergeCell ref="E58:F59"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="G59:H59"/>
     <mergeCell ref="A22:F22"/>
     <mergeCell ref="R56:R57"/>
     <mergeCell ref="S56:T56"/>
@@ -3688,6 +3673,21 @@
     <mergeCell ref="D34:D46"/>
     <mergeCell ref="E42:L43"/>
     <mergeCell ref="L44:L47"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="A56:H57"/>
+    <mergeCell ref="B58:C59"/>
+    <mergeCell ref="E58:F59"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="K34:L41"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="O56:P57"/>
+    <mergeCell ref="I34:J35"/>
+    <mergeCell ref="E34:H34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
